--- a/natmiOut/OldD4/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.6189606114005</v>
+        <v>22.481209</v>
       </c>
       <c r="H2">
-        <v>19.6189606114005</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I2">
-        <v>0.1658231650951863</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J2">
-        <v>0.1658231650951863</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.17826195074636</v>
+        <v>0.2667246666666667</v>
       </c>
       <c r="N2">
-        <v>0.17826195074636</v>
+        <v>0.8001740000000001</v>
       </c>
       <c r="O2">
-        <v>0.05799891043834242</v>
+        <v>0.0541745827576984</v>
       </c>
       <c r="P2">
-        <v>0.05799891043834242</v>
+        <v>0.07300781059322826</v>
       </c>
       <c r="Q2">
-        <v>3.497314190204253</v>
+        <v>5.996292976788667</v>
       </c>
       <c r="R2">
-        <v>3.497314190204253</v>
+        <v>53.96663679109801</v>
       </c>
       <c r="S2">
-        <v>0.009617562900958177</v>
+        <v>0.008972536655375035</v>
       </c>
       <c r="T2">
-        <v>0.009617562900958177</v>
+        <v>0.01212709619628675</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.6189606114005</v>
+        <v>22.481209</v>
       </c>
       <c r="H3">
-        <v>19.6189606114005</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I3">
-        <v>0.1658231650951863</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J3">
-        <v>0.1658231650951863</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.89527769679352</v>
+        <v>0.010867</v>
       </c>
       <c r="N3">
-        <v>2.89527769679352</v>
+        <v>0.032601</v>
       </c>
       <c r="O3">
-        <v>0.9420010895616576</v>
+        <v>0.002207201899191583</v>
       </c>
       <c r="P3">
-        <v>0.9420010895616576</v>
+        <v>0.002974512584950067</v>
       </c>
       <c r="Q3">
-        <v>56.80233909245842</v>
+        <v>0.244303298203</v>
       </c>
       <c r="R3">
-        <v>56.80233909245842</v>
+        <v>2.198729683827</v>
       </c>
       <c r="S3">
-        <v>0.1562056021942281</v>
+        <v>0.0003655625745173944</v>
       </c>
       <c r="T3">
-        <v>0.1562056021942281</v>
+        <v>0.0004940868649757984</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.3320318614859</v>
+        <v>22.481209</v>
       </c>
       <c r="H4">
-        <v>28.3320318614859</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I4">
-        <v>0.2394676909702955</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J4">
-        <v>0.2394676909702955</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.17826195074636</v>
+        <v>0.644775</v>
       </c>
       <c r="N4">
-        <v>0.17826195074636</v>
+        <v>1.934325</v>
       </c>
       <c r="O4">
-        <v>0.05799891043834242</v>
+        <v>0.1309605783151976</v>
       </c>
       <c r="P4">
-        <v>0.05799891043834242</v>
+        <v>0.1764876554671187</v>
       </c>
       <c r="Q4">
-        <v>5.050523268236502</v>
+        <v>14.495321532975</v>
       </c>
       <c r="R4">
-        <v>5.050523268236502</v>
+        <v>130.457893796775</v>
       </c>
       <c r="S4">
-        <v>0.01388886516146283</v>
+        <v>0.02169003487480012</v>
       </c>
       <c r="T4">
-        <v>0.01388886516146283</v>
+        <v>0.02931580549965679</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.3320318614859</v>
+        <v>22.481209</v>
       </c>
       <c r="H5">
-        <v>28.3320318614859</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I5">
-        <v>0.2394676909702955</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J5">
-        <v>0.2394676909702955</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.89527769679352</v>
+        <v>0.190892</v>
       </c>
       <c r="N5">
-        <v>2.89527769679352</v>
+        <v>0.572676</v>
       </c>
       <c r="O5">
-        <v>0.9420010895616576</v>
+        <v>0.0387721712469384</v>
       </c>
       <c r="P5">
-        <v>0.9420010895616576</v>
+        <v>0.0522509116008363</v>
       </c>
       <c r="Q5">
-        <v>82.02909995340352</v>
+        <v>4.291482948428</v>
       </c>
       <c r="R5">
-        <v>82.02909995340352</v>
+        <v>38.623346535852</v>
       </c>
       <c r="S5">
-        <v>0.2255788258088327</v>
+        <v>0.006421548815199635</v>
       </c>
       <c r="T5">
-        <v>0.2255788258088327</v>
+        <v>0.00867923344335696</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.8613746487719</v>
+        <v>22.481209</v>
       </c>
       <c r="H6">
-        <v>29.8613746487719</v>
+        <v>67.44362700000001</v>
       </c>
       <c r="I6">
-        <v>0.2523939854120047</v>
+        <v>0.1656226259370683</v>
       </c>
       <c r="J6">
-        <v>0.2523939854120047</v>
+        <v>0.166106832923046</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.17826195074636</v>
+        <v>3.8101695</v>
       </c>
       <c r="N6">
-        <v>0.17826195074636</v>
+        <v>7.620339</v>
       </c>
       <c r="O6">
-        <v>0.05799891043834242</v>
+        <v>0.7738854657809741</v>
       </c>
       <c r="P6">
-        <v>0.05799891043834242</v>
+        <v>0.6952791097538666</v>
       </c>
       <c r="Q6">
-        <v>5.323146896857979</v>
+        <v>85.65721685492552</v>
       </c>
       <c r="R6">
-        <v>5.323146896857979</v>
+        <v>513.9433011295531</v>
       </c>
       <c r="S6">
-        <v>0.01463857615508716</v>
+        <v>0.1281729430171762</v>
       </c>
       <c r="T6">
-        <v>0.01463857615508716</v>
+        <v>0.1154906109187697</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.8613746487719</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H7">
-        <v>29.8613746487719</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I7">
-        <v>0.2523939854120047</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J7">
-        <v>0.2523939854120047</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.89527769679352</v>
+        <v>0.2667246666666667</v>
       </c>
       <c r="N7">
-        <v>2.89527769679352</v>
+        <v>0.8001740000000001</v>
       </c>
       <c r="O7">
-        <v>0.9420010895616576</v>
+        <v>0.0541745827576984</v>
       </c>
       <c r="P7">
-        <v>0.9420010895616576</v>
+        <v>0.07300781059322826</v>
       </c>
       <c r="Q7">
-        <v>86.45697201618471</v>
+        <v>7.868859815955778</v>
       </c>
       <c r="R7">
-        <v>86.45697201618471</v>
+        <v>70.81973834360201</v>
       </c>
       <c r="S7">
-        <v>0.2377554092569175</v>
+        <v>0.01177454694224812</v>
       </c>
       <c r="T7">
-        <v>0.2377554092569175</v>
+        <v>0.01591423573073925</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>39.328016970482</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H8">
-        <v>39.328016970482</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I8">
-        <v>0.3324078364871638</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J8">
-        <v>0.3324078364871638</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.17826195074636</v>
+        <v>0.010867</v>
       </c>
       <c r="N8">
-        <v>0.17826195074636</v>
+        <v>0.032601</v>
       </c>
       <c r="O8">
-        <v>0.05799891043834242</v>
+        <v>0.002207201899191583</v>
       </c>
       <c r="P8">
-        <v>0.05799891043834242</v>
+        <v>0.002974512584950067</v>
       </c>
       <c r="Q8">
-        <v>7.010689024144072</v>
+        <v>0.3205961439136667</v>
       </c>
       <c r="R8">
-        <v>7.010689024144072</v>
+        <v>2.885365295223</v>
       </c>
       <c r="S8">
-        <v>0.01927929233742218</v>
+        <v>0.0004797231662916202</v>
       </c>
       <c r="T8">
-        <v>0.01927929233742218</v>
+        <v>0.0006483839753076583</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>39.328016970482</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H9">
-        <v>39.328016970482</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I9">
-        <v>0.3324078364871638</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J9">
-        <v>0.3324078364871638</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.89527769679352</v>
+        <v>0.644775</v>
       </c>
       <c r="N9">
-        <v>2.89527769679352</v>
+        <v>1.934325</v>
       </c>
       <c r="O9">
-        <v>0.9420010895616576</v>
+        <v>0.1309605783151976</v>
       </c>
       <c r="P9">
-        <v>0.9420010895616576</v>
+        <v>0.1764876554671187</v>
       </c>
       <c r="Q9">
-        <v>113.8655303937536</v>
+        <v>19.022028038275</v>
       </c>
       <c r="R9">
-        <v>113.8655303937536</v>
+        <v>171.198252344475</v>
       </c>
       <c r="S9">
-        <v>0.3131285441497416</v>
+        <v>0.02846355981831963</v>
       </c>
       <c r="T9">
-        <v>0.3131285441497416</v>
+        <v>0.03847076264645213</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.17216047989684</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H10">
-        <v>1.17216047989684</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I10">
-        <v>0.009907322035349725</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J10">
-        <v>0.009907322035349725</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.17826195074636</v>
+        <v>0.190892</v>
       </c>
       <c r="N10">
-        <v>0.17826195074636</v>
+        <v>0.572676</v>
       </c>
       <c r="O10">
-        <v>0.05799891043834242</v>
+        <v>0.0387721712469384</v>
       </c>
       <c r="P10">
-        <v>0.05799891043834242</v>
+        <v>0.0522509116008363</v>
       </c>
       <c r="Q10">
-        <v>0.2089516137342002</v>
+        <v>5.631659069105333</v>
       </c>
       <c r="R10">
-        <v>0.2089516137342002</v>
+        <v>50.684931621948</v>
       </c>
       <c r="S10">
-        <v>0.000574613883412065</v>
+        <v>0.008426917701273576</v>
       </c>
       <c r="T10">
-        <v>0.000574613883412065</v>
+        <v>0.01138964882805093</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,52 +1092,982 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.17216047989684</v>
+        <v>29.50180766666667</v>
       </c>
       <c r="H11">
-        <v>1.17216047989684</v>
+        <v>88.50542300000001</v>
       </c>
       <c r="I11">
-        <v>0.009907322035349725</v>
+        <v>0.2173444878184117</v>
       </c>
       <c r="J11">
-        <v>0.009907322035349725</v>
+        <v>0.2179799065528387</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.89527769679352</v>
+        <v>3.8101695</v>
       </c>
       <c r="N11">
-        <v>2.89527769679352</v>
+        <v>7.620339</v>
       </c>
       <c r="O11">
-        <v>0.9420010895616576</v>
+        <v>0.7738854657809741</v>
       </c>
       <c r="P11">
-        <v>0.9420010895616576</v>
+        <v>0.6952791097538666</v>
       </c>
       <c r="Q11">
-        <v>3.393730094508109</v>
+        <v>112.4068877663995</v>
       </c>
       <c r="R11">
-        <v>3.393730094508109</v>
+        <v>674.441326598397</v>
       </c>
       <c r="S11">
-        <v>0.009332708151937661</v>
+        <v>0.1681997401902788</v>
       </c>
       <c r="T11">
-        <v>0.009332708151937661</v>
+        <v>0.1515568753722887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>42.765269</v>
+      </c>
+      <c r="H12">
+        <v>128.295807</v>
+      </c>
+      <c r="I12">
+        <v>0.3150585073376215</v>
+      </c>
+      <c r="J12">
+        <v>0.3159795984589671</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.2667246666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.8001740000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.0541745827576984</v>
+      </c>
+      <c r="P12">
+        <v>0.07300781059322826</v>
+      </c>
+      <c r="Q12">
+        <v>11.40655211893533</v>
+      </c>
+      <c r="R12">
+        <v>102.658969070418</v>
+      </c>
+      <c r="S12">
+        <v>0.01706816317927891</v>
+      </c>
+      <c r="T12">
+        <v>0.02306897867561659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>42.765269</v>
+      </c>
+      <c r="H13">
+        <v>128.295807</v>
+      </c>
+      <c r="I13">
+        <v>0.3150585073376215</v>
+      </c>
+      <c r="J13">
+        <v>0.3159795984589671</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.010867</v>
+      </c>
+      <c r="N13">
+        <v>0.032601</v>
+      </c>
+      <c r="O13">
+        <v>0.002207201899191583</v>
+      </c>
+      <c r="P13">
+        <v>0.002974512584950067</v>
+      </c>
+      <c r="Q13">
+        <v>0.4647301782229999</v>
+      </c>
+      <c r="R13">
+        <v>4.182571604006999</v>
+      </c>
+      <c r="S13">
+        <v>0.0006953977357520634</v>
+      </c>
+      <c r="T13">
+        <v>0.0009398852922036662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>42.765269</v>
+      </c>
+      <c r="H14">
+        <v>128.295807</v>
+      </c>
+      <c r="I14">
+        <v>0.3150585073376215</v>
+      </c>
+      <c r="J14">
+        <v>0.3159795984589671</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.644775</v>
+      </c>
+      <c r="N14">
+        <v>1.934325</v>
+      </c>
+      <c r="O14">
+        <v>0.1309605783151976</v>
+      </c>
+      <c r="P14">
+        <v>0.1764876554671187</v>
+      </c>
+      <c r="Q14">
+        <v>27.573976319475</v>
+      </c>
+      <c r="R14">
+        <v>248.165786875275</v>
+      </c>
+      <c r="S14">
+        <v>0.04126024432405784</v>
+      </c>
+      <c r="T14">
+        <v>0.0557664985074647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>42.765269</v>
+      </c>
+      <c r="H15">
+        <v>128.295807</v>
+      </c>
+      <c r="I15">
+        <v>0.3150585073376215</v>
+      </c>
+      <c r="J15">
+        <v>0.3159795984589671</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.190892</v>
+      </c>
+      <c r="N15">
+        <v>0.572676</v>
+      </c>
+      <c r="O15">
+        <v>0.0387721712469384</v>
+      </c>
+      <c r="P15">
+        <v>0.0522509116008363</v>
+      </c>
+      <c r="Q15">
+        <v>8.163547729947998</v>
+      </c>
+      <c r="R15">
+        <v>73.47192956953199</v>
+      </c>
+      <c r="S15">
+        <v>0.01221550239929906</v>
+      </c>
+      <c r="T15">
+        <v>0.01651022206674724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>42.765269</v>
+      </c>
+      <c r="H16">
+        <v>128.295807</v>
+      </c>
+      <c r="I16">
+        <v>0.3150585073376215</v>
+      </c>
+      <c r="J16">
+        <v>0.3159795984589671</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.8101695</v>
+      </c>
+      <c r="N16">
+        <v>7.620339</v>
+      </c>
+      <c r="O16">
+        <v>0.7738854657809741</v>
+      </c>
+      <c r="P16">
+        <v>0.6952791097538666</v>
+      </c>
+      <c r="Q16">
+        <v>162.9429236030955</v>
+      </c>
+      <c r="R16">
+        <v>977.6575416185731</v>
+      </c>
+      <c r="S16">
+        <v>0.2438191996992336</v>
+      </c>
+      <c r="T16">
+        <v>0.2196940139169349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>39.80222300000001</v>
+      </c>
+      <c r="H17">
+        <v>119.406669</v>
+      </c>
+      <c r="I17">
+        <v>0.2932292783449848</v>
+      </c>
+      <c r="J17">
+        <v>0.2940865504976542</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2667246666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.8001740000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.0541745827576984</v>
+      </c>
+      <c r="P17">
+        <v>0.07300781059322826</v>
+      </c>
+      <c r="Q17">
+        <v>10.61623466226733</v>
+      </c>
+      <c r="R17">
+        <v>95.54611196040601</v>
+      </c>
+      <c r="S17">
+        <v>0.01588557380668056</v>
+      </c>
+      <c r="T17">
+        <v>0.0214706151767486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>39.80222300000001</v>
+      </c>
+      <c r="H18">
+        <v>119.406669</v>
+      </c>
+      <c r="I18">
+        <v>0.2932292783449848</v>
+      </c>
+      <c r="J18">
+        <v>0.2940865504976542</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.010867</v>
+      </c>
+      <c r="N18">
+        <v>0.032601</v>
+      </c>
+      <c r="O18">
+        <v>0.002207201899191583</v>
+      </c>
+      <c r="P18">
+        <v>0.002974512584950067</v>
+      </c>
+      <c r="Q18">
+        <v>0.432530757341</v>
+      </c>
+      <c r="R18">
+        <v>3.892776816069</v>
+      </c>
+      <c r="S18">
+        <v>0.0006472162200616277</v>
+      </c>
+      <c r="T18">
+        <v>0.0008747641455198257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>39.80222300000001</v>
+      </c>
+      <c r="H19">
+        <v>119.406669</v>
+      </c>
+      <c r="I19">
+        <v>0.2932292783449848</v>
+      </c>
+      <c r="J19">
+        <v>0.2940865504976542</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.644775</v>
+      </c>
+      <c r="N19">
+        <v>1.934325</v>
+      </c>
+      <c r="O19">
+        <v>0.1309605783151976</v>
+      </c>
+      <c r="P19">
+        <v>0.1764876554671187</v>
+      </c>
+      <c r="Q19">
+        <v>25.663478334825</v>
+      </c>
+      <c r="R19">
+        <v>230.971305013425</v>
+      </c>
+      <c r="S19">
+        <v>0.03840147587100727</v>
+      </c>
+      <c r="T19">
+        <v>0.05190264580174341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>39.80222300000001</v>
+      </c>
+      <c r="H20">
+        <v>119.406669</v>
+      </c>
+      <c r="I20">
+        <v>0.2932292783449848</v>
+      </c>
+      <c r="J20">
+        <v>0.2940865504976542</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.190892</v>
+      </c>
+      <c r="N20">
+        <v>0.572676</v>
+      </c>
+      <c r="O20">
+        <v>0.0387721712469384</v>
+      </c>
+      <c r="P20">
+        <v>0.0522509116008363</v>
+      </c>
+      <c r="Q20">
+        <v>7.597925952916</v>
+      </c>
+      <c r="R20">
+        <v>68.381333576244</v>
+      </c>
+      <c r="S20">
+        <v>0.01136913579460792</v>
+      </c>
+      <c r="T20">
+        <v>0.01536629035304781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>39.80222300000001</v>
+      </c>
+      <c r="H21">
+        <v>119.406669</v>
+      </c>
+      <c r="I21">
+        <v>0.2932292783449848</v>
+      </c>
+      <c r="J21">
+        <v>0.2940865504976542</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.8101695</v>
+      </c>
+      <c r="N21">
+        <v>7.620339</v>
+      </c>
+      <c r="O21">
+        <v>0.7738854657809741</v>
+      </c>
+      <c r="P21">
+        <v>0.6952791097538666</v>
+      </c>
+      <c r="Q21">
+        <v>151.6532161067985</v>
+      </c>
+      <c r="R21">
+        <v>909.9192966407911</v>
+      </c>
+      <c r="S21">
+        <v>0.2269258766526275</v>
+      </c>
+      <c r="T21">
+        <v>0.2044722350205946</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.1870385</v>
+      </c>
+      <c r="H22">
+        <v>2.374077</v>
+      </c>
+      <c r="I22">
+        <v>0.008745100561913671</v>
+      </c>
+      <c r="J22">
+        <v>0.005847111567493934</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.2667246666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.8001740000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.0541745827576984</v>
+      </c>
+      <c r="P22">
+        <v>0.07300781059322826</v>
+      </c>
+      <c r="Q22">
+        <v>0.3166124482330001</v>
+      </c>
+      <c r="R22">
+        <v>1.899674689398</v>
+      </c>
+      <c r="S22">
+        <v>0.000473762174115787</v>
+      </c>
+      <c r="T22">
+        <v>0.0004268848138370712</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.1870385</v>
+      </c>
+      <c r="H23">
+        <v>2.374077</v>
+      </c>
+      <c r="I23">
+        <v>0.008745100561913671</v>
+      </c>
+      <c r="J23">
+        <v>0.005847111567493934</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.010867</v>
+      </c>
+      <c r="N23">
+        <v>0.032601</v>
+      </c>
+      <c r="O23">
+        <v>0.002207201899191583</v>
+      </c>
+      <c r="P23">
+        <v>0.002974512584950067</v>
+      </c>
+      <c r="Q23">
+        <v>0.0128995473795</v>
+      </c>
+      <c r="R23">
+        <v>0.077397284277</v>
+      </c>
+      <c r="S23">
+        <v>1.930220256887723E-05</v>
+      </c>
+      <c r="T23">
+        <v>1.739230694311782E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.1870385</v>
+      </c>
+      <c r="H24">
+        <v>2.374077</v>
+      </c>
+      <c r="I24">
+        <v>0.008745100561913671</v>
+      </c>
+      <c r="J24">
+        <v>0.005847111567493934</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.644775</v>
+      </c>
+      <c r="N24">
+        <v>1.934325</v>
+      </c>
+      <c r="O24">
+        <v>0.1309605783151976</v>
+      </c>
+      <c r="P24">
+        <v>0.1764876554671187</v>
+      </c>
+      <c r="Q24">
+        <v>0.7653727488375001</v>
+      </c>
+      <c r="R24">
+        <v>4.592236493025</v>
+      </c>
+      <c r="S24">
+        <v>0.001145263427012774</v>
+      </c>
+      <c r="T24">
+        <v>0.001031943011801674</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.1870385</v>
+      </c>
+      <c r="H25">
+        <v>2.374077</v>
+      </c>
+      <c r="I25">
+        <v>0.008745100561913671</v>
+      </c>
+      <c r="J25">
+        <v>0.005847111567493934</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.190892</v>
+      </c>
+      <c r="N25">
+        <v>0.572676</v>
+      </c>
+      <c r="O25">
+        <v>0.0387721712469384</v>
+      </c>
+      <c r="P25">
+        <v>0.0522509116008363</v>
+      </c>
+      <c r="Q25">
+        <v>0.226596153342</v>
+      </c>
+      <c r="R25">
+        <v>1.359576920052</v>
+      </c>
+      <c r="S25">
+        <v>0.0003390665365582141</v>
+      </c>
+      <c r="T25">
+        <v>0.0003055169096333529</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.1870385</v>
+      </c>
+      <c r="H26">
+        <v>2.374077</v>
+      </c>
+      <c r="I26">
+        <v>0.008745100561913671</v>
+      </c>
+      <c r="J26">
+        <v>0.005847111567493934</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.8101695</v>
+      </c>
+      <c r="N26">
+        <v>7.620339</v>
+      </c>
+      <c r="O26">
+        <v>0.7738854657809741</v>
+      </c>
+      <c r="P26">
+        <v>0.6952791097538666</v>
+      </c>
+      <c r="Q26">
+        <v>4.522817888025751</v>
+      </c>
+      <c r="R26">
+        <v>18.091271552103</v>
+      </c>
+      <c r="S26">
+        <v>0.006767706221658019</v>
+      </c>
+      <c r="T26">
+        <v>0.004065374525278718</v>
       </c>
     </row>
   </sheetData>
